--- a/datasets/HSR_locations.xlsx
+++ b/datasets/HSR_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\03MyProjects\South_Korea_High-speed_Rail_Planning\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFB0C0-388F-43E1-8E1A-1814E496C1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C6AB5-360D-47E0-862E-9EC6B1F67480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>Station</t>
   </si>
   <si>
-    <t>Haengsin</t>
-  </si>
-  <si>
     <t>Seoul</t>
   </si>
   <si>
@@ -63,18 +60,6 @@
     <t>Busan</t>
   </si>
   <si>
-    <t>Coordinates</t>
-  </si>
-  <si>
-    <t>40°06'10"N 88°14'15"W</t>
-  </si>
-  <si>
-    <t>Elevation</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
     <t>Gyeongbu</t>
   </si>
   <si>
@@ -85,13 +70,61 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Donghae, Gyeongjeon</t>
+  </si>
+  <si>
+    <t>Station Spacing (km)</t>
+  </si>
+  <si>
+    <t>Gongju</t>
+  </si>
+  <si>
+    <t>Iksan</t>
+  </si>
+  <si>
+    <t>Jeongeup</t>
+  </si>
+  <si>
+    <t>Gwangjusongjeong</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Station Spacing from Osong</t>
+  </si>
+  <si>
+    <t>Honam</t>
+  </si>
+  <si>
+    <t>Gyeongbu, Honam</t>
+  </si>
+  <si>
+    <t>Yongsan</t>
+  </si>
+  <si>
+    <t>All Gyeongbu PASS</t>
+  </si>
+  <si>
+    <t>Jeolla, Janghang</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>Longitudinal Coordinates (xloc)</t>
+  </si>
+  <si>
+    <t>Lateral Coordinates (yloc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,11 +139,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF1F2328"/>
-      <name val="Var(--fontStack-monospace, ui-m"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,13 +176,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,180 +463,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
+      <c r="B2" s="5">
+        <v>37.554721999999998</v>
+      </c>
+      <c r="C2" s="5">
+        <v>126.970833</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>37.529788000000003</v>
+      </c>
+      <c r="C3" s="5">
+        <v>126.96465999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>37.416051000000003</v>
+      </c>
+      <c r="C4" s="5">
+        <v>126.884686</v>
+      </c>
+      <c r="D4" s="5">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>36.78575</v>
+      </c>
+      <c r="C5" s="5">
+        <v>127.102833</v>
+      </c>
+      <c r="D5" s="5">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>36.627071999999998</v>
+      </c>
+      <c r="C6" s="5">
+        <v>127.327287</v>
+      </c>
+      <c r="D6" s="5">
+        <v>28.7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>36.332301000000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>127.43471599999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>36.119934000000001</v>
+      </c>
+      <c r="C8" s="5">
+        <v>128.11969400000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>73.8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>35.879547000000002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>128.62858600000001</v>
+      </c>
+      <c r="D9" s="5">
+        <v>53.1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>35.842097000000003</v>
+      </c>
+      <c r="C10" s="5">
+        <v>129.21159800000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>35.551670999999999</v>
+      </c>
+      <c r="C11" s="5">
+        <v>129.13855599999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>35.115203999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <v>129.04151200000001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>51.7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>36.453113999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>127.12155300000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43.8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <v>35.943528000000001</v>
+      </c>
+      <c r="C14" s="5">
+        <v>126.945744</v>
+      </c>
+      <c r="D14" s="5">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
+      <c r="B15" s="5">
+        <v>35.569445000000002</v>
+      </c>
+      <c r="C15" s="5">
+        <v>126.851405</v>
+      </c>
+      <c r="D15" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5">
+        <v>35.139896999999998</v>
+      </c>
+      <c r="C16" s="5">
+        <v>126.793336</v>
+      </c>
+      <c r="D16" s="5">
+        <v>50.5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/HSR_locations.xlsx
+++ b/datasets/HSR_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\03MyProjects\South_Korea_High-speed_Rail_Planning\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C6AB5-360D-47E0-862E-9EC6B1F67480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B427E9E1-D28B-4ADA-84F0-7A967F9B6746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Junction</t>
   </si>
   <si>
-    <t>Gyeongbu,Honam</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Lateral Coordinates (yloc)</t>
+  </si>
+  <si>
+    <t>To be extended to Mokpo (2025)</t>
   </si>
 </sst>
 </file>
@@ -176,12 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,7 +475,7 @@
     <col min="4" max="4" width="18.21875" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -485,367 +483,367 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>37.554721999999998</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>126.970833</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>37.529788000000003</v>
+      </c>
+      <c r="C3" s="3">
+        <v>126.96465999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="5">
-        <v>37.529788000000003</v>
-      </c>
-      <c r="C3" s="5">
-        <v>126.96465999999999</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>37.416051000000003</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>126.884686</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>36.78575</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>127.102833</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>36.627071999999998</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>127.327287</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>28.7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>36.332301000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>127.43471599999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>35.1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>36.119934000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>128.11969400000001</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>73.8</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>35.879547000000002</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>128.62858600000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>53.1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>35.842097000000003</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>129.21159800000001</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>35.551670999999999</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>129.13855599999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>35.115203999999999</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>129.04151200000001</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>51.7</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>36.453113999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>127.12155300000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43.8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="5">
-        <v>36.453113999999999</v>
-      </c>
-      <c r="C13" s="5">
-        <v>127.12155300000001</v>
-      </c>
-      <c r="D13" s="5">
-        <v>43.8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="B14" s="3">
+        <v>35.943528000000001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>126.945744</v>
+      </c>
+      <c r="D14" s="3">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
-        <v>35.943528000000001</v>
-      </c>
-      <c r="C14" s="5">
-        <v>126.945744</v>
-      </c>
-      <c r="D14" s="5">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="3">
+        <v>35.569445000000002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>126.851405</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42.1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5">
-        <v>35.569445000000002</v>
-      </c>
-      <c r="C15" s="5">
-        <v>126.851405</v>
-      </c>
-      <c r="D15" s="5">
-        <v>42.1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>35.139896999999998</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>126.793336</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>50.5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
